--- a/csv说明.xlsx
+++ b/csv说明.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="105">
   <si>
     <t xml:space="preserve">file_name</t>
   </si>
@@ -254,6 +254,87 @@
   </si>
   <si>
     <t xml:space="preserve">distinct_bigram_features.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clean_stop_features.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count_of_stop_sen1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ratio_of_stop_sen1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count_of_stop_sen2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ratio_of_stop_sen2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idf_dict.pkl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">词的idf信息，只在训练集上提取，实际上可以加入测试集合</t>
+  </si>
+  <si>
+    <t xml:space="preserve">idf_stats_features.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_s1_idfs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_s1_idfs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_s1_idfs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">median_s1_idfs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">std_s1_idfs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">min_s2_idfs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max_s2_idfs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean_s2_idfs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">median_s2_idfs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">std_s2_idfs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hashed.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sen1_hash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sen2_hash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hashed_idf.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sen1_hash_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sen2_hash_count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">neighbor.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sen (int转换为str）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hashes (list转换为str)</t>
   </si>
 </sst>
 </file>
@@ -263,11 +344,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Noto Sans CJK SC Regular"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -288,11 +370,25 @@
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="13"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Noto Sans CJK SC Regular"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -349,7 +445,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -374,6 +470,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -391,26 +495,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="14:14"/>
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="46.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.9030612244898"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.6020408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.8724489795918"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="25.0102040816327"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.4540816326531"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.3928571428571"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.5561224489796"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.4795918367347"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.2244897959184"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="20.2857142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.8979591836735"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.3367346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.0051020408163"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.4234693877551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.0255102040816"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.0510204081633"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.0816326530612"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.0102040816327"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -682,8 +786,20 @@
       <c r="C13" s="5" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="14" s="5" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="0"/>
+      <c r="E13" s="0"/>
+      <c r="F13" s="0"/>
+      <c r="G13" s="0"/>
+      <c r="H13" s="0"/>
+      <c r="I13" s="0"/>
+      <c r="J13" s="0"/>
+      <c r="K13" s="0"/>
+      <c r="L13" s="0"/>
+      <c r="M13" s="0"/>
+      <c r="N13" s="0"/>
+      <c r="O13" s="0"/>
+    </row>
+    <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
         <v>77</v>
       </c>
@@ -692,6 +808,99 @@
       </c>
       <c r="C14" s="5" t="s">
         <v>67</v>
+      </c>
+    </row>
+    <row r="15" s="6" customFormat="true" ht="16.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" s="7" customFormat="true" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="20" s="7" customFormat="true" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/csv说明.xlsx
+++ b/csv说明.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="128">
   <si>
     <t xml:space="preserve">file_name</t>
   </si>
@@ -335,6 +335,75 @@
   </si>
   <si>
     <t xml:space="preserve">hashes (list转换为str)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cooccurrence_qid.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sen1_unigram_sen2_hash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sen1_hash_sen2_unigram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bigram_minmax_features.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jaccard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count_s1_in_s2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ratio_s1_in_s2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count_of_sen_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count_of_sen_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count_of_unique_sen_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count_of_unique_sen_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ratio_of_unique_sen-min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ratio_of_unique_sen_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count_of_digit_sen_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">count_of_digit_sen_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ratio_of_digit_sen-min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ratio_of_digit_sen_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distinct_uigram_minmax_features.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sen_distinct_unigram_min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sen_distinct_unigram_max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">distinct_bigram_minmax_features.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sen_distinct_bigram_min</t>
   </si>
 </sst>
 </file>
@@ -495,26 +564,25 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.8979591836735"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="38.3367346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="44.0051020408163"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.4234693877551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="29.0255102040816"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="26.0510204081633"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="23.0816326530612"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="17.0102040816327"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.9795918367347"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="45.3571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="37.7959183673469"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="43.469387755102"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.0204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="24.4336734693878"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="25.6479591836735"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="22.8112244897959"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="16.7397959183673"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="19.7091836734694"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -776,7 +844,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="13" s="5" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
         <v>76</v>
       </c>
@@ -786,18 +854,6 @@
       <c r="C13" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="D13" s="0"/>
-      <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
-      <c r="G13" s="0"/>
-      <c r="H13" s="0"/>
-      <c r="I13" s="0"/>
-      <c r="J13" s="0"/>
-      <c r="K13" s="0"/>
-      <c r="L13" s="0"/>
-      <c r="M13" s="0"/>
-      <c r="N13" s="0"/>
-      <c r="O13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
@@ -835,7 +891,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="7" t="s">
         <v>85</v>
       </c>
@@ -870,7 +926,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="18" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="7" t="s">
         <v>96</v>
       </c>
@@ -881,7 +937,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="7" t="s">
         <v>99</v>
       </c>
@@ -892,7 +948,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" s="7" customFormat="true" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="23.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="7" t="s">
         <v>102</v>
       </c>
@@ -901,6 +957,86 @@
       </c>
       <c r="C20" s="7" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="21" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" s="7" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="M22" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="N22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>124</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>126</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>127</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
